--- a/builder/computeposition.xlsx
+++ b/builder/computeposition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="21120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="115">
   <si>
     <t>Adobe After Effects 8.0 Keyframe Data</t>
   </si>
@@ -417,8 +417,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -693,7 +707,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="285">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -829,6 +843,13 @@
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -964,6 +985,13 @@
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1295,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1328,19 +1356,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>29.97</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <f>B11</f>
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="H3">
         <f>C11*100/$H$1</f>
-        <v>52.973437500000003</v>
+        <v>73.980208333333337</v>
       </c>
       <c r="I3">
         <f>D11*100/$I$1</f>
-        <v>47.907222222222224</v>
+        <v>52.161203703703706</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1352,15 +1380,15 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G53" si="0">B12</f>
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H53" si="1">C12*100/$H$1</f>
-        <v>53.161458333333336</v>
+        <v>73.006249999999994</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I53" si="2">D12*100/$I$1</f>
-        <v>47.893055555555556</v>
+        <v>52.148981481481478</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1372,15 +1400,15 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>52.970833333333331</v>
+        <v>71.642708333333331</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>47.852500000000006</v>
+        <v>52.053796296296305</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1392,15 +1420,15 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>52.987499999999997</v>
+        <v>70.444270833333334</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>47.810370370370364</v>
+        <v>52.029999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1412,29 +1440,29 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>53.00416666666667</v>
+        <v>69.41458333333334</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>47.766481481481485</v>
+        <v>52.084166666666668</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>53.020312500000003</v>
+        <v>68.508854166666666</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>47.720833333333331</v>
+        <v>51.989166666666662</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1446,15 +1474,15 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>52.931770833333331</v>
+        <v>67.469791666666666</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>47.673333333333332</v>
+        <v>51.989999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1472,1787 +1500,1787 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>52.843229166666667</v>
+        <v>66.118229166666666</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>47.623796296296291</v>
+        <v>51.947685185185186</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="C11">
-        <v>1017.09</v>
+        <v>1420.42</v>
       </c>
       <c r="D11">
-        <v>517.39800000000002</v>
+        <v>563.34100000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>52.857812500000001</v>
+        <v>64.809895833333329</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>47.572129629629629</v>
+        <v>51.911574074074075</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12">
-        <v>240</v>
+        <v>301</v>
       </c>
       <c r="C12">
-        <v>1020.7</v>
+        <v>1401.72</v>
       </c>
       <c r="D12">
-        <v>517.245</v>
+        <v>563.20899999999995</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>52.663541666666667</v>
+        <v>63.512500000000003</v>
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>47.518240740740737</v>
+        <v>51.918240740740735</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="C13">
-        <v>1017.04</v>
+        <v>1375.54</v>
       </c>
       <c r="D13">
-        <v>516.80700000000002</v>
+        <v>562.18100000000004</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>52.677083333333336</v>
+        <v>62.302083333333336</v>
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>47.461944444444455</v>
+        <v>51.86611111111111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="B14">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="C14">
-        <v>1017.36</v>
+        <v>1352.53</v>
       </c>
       <c r="D14">
-        <v>516.35199999999998</v>
+        <v>561.92399999999998</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>52.599479166666669</v>
+        <v>61.46406249999999</v>
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>47.436759259259254</v>
+        <v>51.850185185185182</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15">
-        <v>243</v>
+        <v>304</v>
       </c>
       <c r="C15">
-        <v>1017.68</v>
+        <v>1332.76</v>
       </c>
       <c r="D15">
-        <v>515.87800000000004</v>
+        <v>562.50900000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>52.41822916666667</v>
+        <v>60.546875</v>
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>47.409722222222221</v>
+        <v>51.959907407407414</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="C16">
-        <v>1017.99</v>
+        <v>1315.37</v>
       </c>
       <c r="D16">
-        <v>515.38499999999999</v>
+        <v>561.48299999999995</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>52.55</v>
+        <v>59.831249999999997</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>47.380740740740741</v>
+        <v>51.904074074074067</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="C17">
-        <v>1016.29</v>
+        <v>1295.42</v>
       </c>
       <c r="D17">
-        <v>514.87199999999996</v>
+        <v>561.49199999999996</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>52.682291666666664</v>
+        <v>59.560937500000001</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>47.349722222222226</v>
+        <v>51.913055555555545</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C18">
-        <v>1014.59</v>
+        <v>1269.47</v>
       </c>
       <c r="D18">
-        <v>514.33699999999999</v>
+        <v>561.03499999999997</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>52.815104166666664</v>
+        <v>59.246875000000003</v>
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>47.131388888888893</v>
+        <v>51.916481481481476</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="C19">
-        <v>1014.87</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="D19">
-        <v>513.779</v>
+        <v>560.64499999999998</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>53.052604166666669</v>
+        <v>58.942187500000003</v>
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>47.281018518518522</v>
+        <v>51.829166666666666</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20">
-        <v>248</v>
+        <v>309</v>
       </c>
       <c r="C20">
-        <v>1011.14</v>
+        <v>1219.44</v>
       </c>
       <c r="D20">
-        <v>513.197</v>
+        <v>560.71699999999998</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>53.186979166666667</v>
+        <v>58.258854166666666</v>
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>47.243055555555557</v>
+        <v>51.773333333333341</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21">
-        <v>249</v>
+        <v>310</v>
       </c>
       <c r="C21">
-        <v>1011.4</v>
+        <v>1196.2</v>
       </c>
       <c r="D21">
-        <v>512.58900000000006</v>
+        <v>560.154</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>53.11354166666667</v>
+        <v>57.69166666666667</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>47.017222222222223</v>
+        <v>51.7575</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="C22">
-        <v>1009.91</v>
+        <v>1180.1099999999999</v>
       </c>
       <c r="D22">
-        <v>512.31700000000001</v>
+        <v>559.98199999999997</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>52.936458333333334</v>
+        <v>57.483854166666667</v>
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>46.973703703703706</v>
+        <v>51.636759259259264</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="C23">
-        <v>1006.43</v>
+        <v>1162.5</v>
       </c>
       <c r="D23">
-        <v>512.02499999999998</v>
+        <v>561.16700000000003</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>52.96875</v>
+        <v>56.919791666666661</v>
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>47.11240740740741</v>
+        <v>51.688796296296296</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="C24">
-        <v>1008.96</v>
+        <v>1148.76</v>
       </c>
       <c r="D24">
-        <v>511.71199999999999</v>
+        <v>560.56399999999996</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>53.001562499999999</v>
+        <v>56.51197916666667</v>
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>47.062685185185181</v>
+        <v>51.682592592592599</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25">
-        <v>253</v>
+        <v>314</v>
       </c>
       <c r="C25">
-        <v>1011.5</v>
+        <v>1143.57</v>
       </c>
       <c r="D25">
-        <v>511.37700000000001</v>
+        <v>560.66099999999994</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>52.931249999999999</v>
+        <v>56.24583333333333</v>
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>47.009444444444441</v>
+        <v>51.59981481481482</v>
       </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="C26">
-        <v>1014.05</v>
+        <v>1137.54</v>
       </c>
       <c r="D26">
-        <v>509.01900000000001</v>
+        <v>560.69799999999998</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>52.966666666666669</v>
+        <v>56.036979166666676</v>
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>46.952407407407406</v>
+        <v>51.524537037037035</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="C27">
-        <v>1018.61</v>
+        <v>1131.69</v>
       </c>
       <c r="D27">
-        <v>510.63499999999999</v>
+        <v>559.755</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>53.002604166666664</v>
+        <v>55.654687500000001</v>
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>46.891296296296296</v>
+        <v>51.409537037037033</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28">
-        <v>256</v>
+        <v>317</v>
       </c>
       <c r="C28">
-        <v>1021.19</v>
+        <v>1118.57</v>
       </c>
       <c r="D28">
-        <v>510.22500000000002</v>
+        <v>559.15200000000004</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>53.143749999999997</v>
+        <v>55.461979166666659</v>
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>46.825833333333335</v>
+        <v>51.268148148148157</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="C29">
-        <v>1019.78</v>
+        <v>1107.68</v>
       </c>
       <c r="D29">
-        <v>507.786</v>
+        <v>558.98099999999999</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>53.037500000000001</v>
+        <v>55.301562500000003</v>
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>46.788796296296297</v>
+        <v>51.171388888888885</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="C30">
-        <v>1016.38</v>
+        <v>1103.69</v>
       </c>
       <c r="D30">
-        <v>507.31599999999997</v>
+        <v>557.67700000000002</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>53.172916666666666</v>
+        <v>55.268229166666671</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>46.765000000000001</v>
+        <v>51.006203703703704</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="C31">
-        <v>1017</v>
+        <v>1092.8599999999999</v>
       </c>
       <c r="D31">
-        <v>508.81400000000002</v>
+        <v>558.23900000000003</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>53.20677083333333</v>
+        <v>54.93333333333333</v>
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>46.738240740740743</v>
+        <v>51.096203703703715</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="C32">
-        <v>1017.63</v>
+        <v>1085.03</v>
       </c>
       <c r="D32">
-        <v>508.27699999999999</v>
+        <v>558.17200000000003</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>53.339583333333323</v>
+        <v>54.489062500000003</v>
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>46.692500000000003</v>
+        <v>51.044259259259263</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="C33">
-        <v>1016.28</v>
+        <v>1079.92</v>
       </c>
       <c r="D33">
-        <v>507.702</v>
+        <v>557.27800000000002</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>53.478124999999999</v>
+        <v>54.368229166666659</v>
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>46.643240740740744</v>
+        <v>51.095000000000006</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="C34">
-        <v>1016.96</v>
+        <v>1075.9100000000001</v>
       </c>
       <c r="D34">
-        <v>507.08600000000001</v>
+        <v>556.46500000000003</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>53.51979166666667</v>
+        <v>54.19166666666667</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>46.589907407407409</v>
+        <v>51.027222222222228</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="C35">
-        <v>1017.65</v>
+        <v>1068.57</v>
       </c>
       <c r="D35">
-        <v>506.42599999999999</v>
+        <v>555.22299999999996</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>53.568750000000001</v>
+        <v>53.373958333333334</v>
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>46.532314814814811</v>
+        <v>50.908055555555556</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36">
-        <v>264</v>
+        <v>325</v>
       </c>
       <c r="C36">
-        <v>1020.36</v>
+        <v>1064.8699999999999</v>
       </c>
       <c r="D36">
-        <v>505.71899999999999</v>
+        <v>553.69600000000003</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>53.417708333333323</v>
+        <v>51.898281249999997</v>
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>46.469907407407405</v>
+        <v>50.784814814814816</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37">
-        <v>265</v>
+        <v>326</v>
       </c>
       <c r="C37">
-        <v>1018.32</v>
+        <v>1061.79</v>
       </c>
       <c r="D37">
-        <v>505.31900000000002</v>
+        <v>552.65099999999995</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>53.37968750000001</v>
+        <v>49.971927083333334</v>
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>46.402222222222221</v>
+        <v>50.561944444444443</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="C38">
-        <v>1020.92</v>
+        <v>1061.1500000000001</v>
       </c>
       <c r="D38">
-        <v>505.06200000000001</v>
+        <v>550.86699999999996</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>53.559895833333329</v>
+        <v>47.65203125</v>
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>46.328888888888883</v>
+        <v>50.25138888888889</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C39">
-        <v>1021.57</v>
+        <v>1054.72</v>
       </c>
       <c r="D39">
-        <v>504.77300000000002</v>
+        <v>551.83900000000006</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>53.54270833333333</v>
+        <v>45.308541666666663</v>
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>46.248981481481479</v>
+        <v>49.978055555555557</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="C40">
-        <v>1024.1199999999999</v>
+        <v>1046.19</v>
       </c>
       <c r="D40">
-        <v>504.279</v>
+        <v>551.27800000000002</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>53.538020833333334</v>
+        <v>42.543593749999999</v>
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>46.162037037037038</v>
+        <v>49.73833333333333</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41">
-        <v>269</v>
+        <v>330</v>
       </c>
       <c r="C41">
-        <v>1026.78</v>
+        <v>1043.8699999999999</v>
       </c>
       <c r="D41">
-        <v>503.74700000000001</v>
+        <v>551.82600000000002</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>53.130729166666669</v>
+        <v>39.584739583333338</v>
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>46.067037037037039</v>
+        <v>49.578055555555551</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="C42">
-        <v>1027.58</v>
+        <v>1040.48</v>
       </c>
       <c r="D42">
-        <v>503.17099999999999</v>
+        <v>551.09400000000005</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>53.36354166666667</v>
+        <v>36.434010416666666</v>
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>45.963055555555556</v>
+        <v>49.242037037037029</v>
       </c>
     </row>
     <row r="43" spans="2:9">
       <c r="B43">
-        <v>271</v>
+        <v>332</v>
       </c>
       <c r="C43">
-        <v>1028.52</v>
+        <v>1024.78</v>
       </c>
       <c r="D43">
-        <v>502.54899999999998</v>
+        <v>549.80700000000002</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>53.613541666666677</v>
+        <v>31.802447916666665</v>
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>45.849074074074075</v>
+        <v>48.602870370370361</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="C44">
-        <v>1025.6199999999999</v>
+        <v>996.447</v>
       </c>
       <c r="D44">
-        <v>501.875</v>
+        <v>548.476</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>53.883854166666666</v>
+        <v>27.500208333333333</v>
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>45.723518518518517</v>
+        <v>47.747314814814821</v>
       </c>
     </row>
     <row r="45" spans="2:9">
       <c r="B45">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="C45">
-        <v>1024.8900000000001</v>
+        <v>959.46100000000001</v>
       </c>
       <c r="D45">
-        <v>501.14400000000001</v>
+        <v>546.06899999999996</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>54.17604166666667</v>
+        <v>21.413177083333331</v>
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>45.584907407407407</v>
+        <v>48.846203703703708</v>
       </c>
     </row>
     <row r="46" spans="2:9">
       <c r="B46">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="C46">
-        <v>1028.3499999999999</v>
+        <v>914.91899999999998</v>
       </c>
       <c r="D46">
-        <v>500.35199999999998</v>
+        <v>542.71500000000003</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>55.015104166666667</v>
+        <v>12.316770833333333</v>
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>45.431296296296296</v>
+        <v>49.059074074074069</v>
       </c>
     </row>
     <row r="47" spans="2:9">
       <c r="B47">
-        <v>275</v>
+        <v>336</v>
       </c>
       <c r="C47">
-        <v>1028.02</v>
+        <v>869.92399999999998</v>
       </c>
       <c r="D47">
-        <v>499.48899999999998</v>
+        <v>539.76300000000003</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>55.467708333333334</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>45.260462962962961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:9">
       <c r="B48">
-        <v>276</v>
+        <v>337</v>
       </c>
       <c r="C48">
-        <v>1027.93</v>
+        <v>816.83699999999999</v>
       </c>
       <c r="D48">
-        <v>498.55</v>
+        <v>537.17399999999998</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>56.266666666666666</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>45.069537037037037</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="C49">
-        <v>1020.11</v>
+        <v>760.02700000000004</v>
       </c>
       <c r="D49">
-        <v>497.524</v>
+        <v>535.44299999999998</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>56.690104166666664</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>44.855092592592591</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="C50">
-        <v>1024.58</v>
+        <v>699.53300000000002</v>
       </c>
       <c r="D50">
-        <v>496.40100000000001</v>
+        <v>531.81399999999996</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>286</v>
+        <v>328.82900000000001</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>57.466666666666661</v>
+        <v>53.838020833333331</v>
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>44.547037037037043</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9">
+        <v>51.048611111111121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="C51">
-        <v>1029.3800000000001</v>
+        <v>610.60699999999997</v>
       </c>
       <c r="D51">
-        <v>495.17</v>
+        <v>524.91099999999994</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>287</v>
+        <v>329.32900000000001</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>58.30885416666667</v>
+        <v>53.69895833333333</v>
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>44.198055555555555</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>51.079537037037035</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="C52">
-        <v>1034.57</v>
+        <v>528.00400000000002</v>
       </c>
       <c r="D52">
-        <v>493.81400000000002</v>
+        <v>515.67100000000005</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>329.83</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>59.229687499999997</v>
+        <v>53.652604166666677</v>
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>43.800092592592591</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9">
+        <v>51.103333333333339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="C53">
-        <v>1040.18</v>
+        <v>411.13299999999998</v>
       </c>
       <c r="D53">
-        <v>492.31700000000001</v>
+        <v>527.53899999999999</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>289</v>
+        <v>330.33100000000002</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>60.24583333333333</v>
+        <v>53.613541666666677</v>
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>43.342314814814813</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9">
+        <v>51.092129629629625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="C54">
-        <v>1056.29</v>
+        <v>236.482</v>
       </c>
       <c r="D54">
-        <v>490.65800000000002</v>
+        <v>529.83799999999997</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="G54">
         <f>B62</f>
-        <v>290</v>
+        <v>330.83100000000002</v>
       </c>
       <c r="H54">
         <f>C62*100/$H$1</f>
-        <v>61.09375</v>
+        <v>53.514583333333334</v>
       </c>
       <c r="I54">
         <f>D62*100/$I$1</f>
-        <v>43.022129629629632</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55">
-        <v>283</v>
-      </c>
-      <c r="C55">
-        <v>1064.98</v>
-      </c>
-      <c r="D55">
-        <v>488.81299999999999</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
+        <v>51.047870370370369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="G55">
         <f t="shared" ref="G55:G59" si="3">B63</f>
-        <v>291</v>
+        <v>331.33199999999999</v>
       </c>
       <c r="H55">
         <f t="shared" ref="H55:H59" si="4">C63*100/$H$1</f>
-        <v>62.067187500000003</v>
+        <v>53.34791666666667</v>
       </c>
       <c r="I55">
         <f t="shared" ref="I55:I59" si="5">D63*100/$I$1</f>
-        <v>42.653148148148148</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56">
-        <v>284</v>
-      </c>
-      <c r="C56">
-        <v>1080.32</v>
-      </c>
-      <c r="D56">
-        <v>486.75099999999998</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
+        <v>51.005740740740741</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>331.83199999999999</v>
       </c>
       <c r="H56">
         <f t="shared" si="4"/>
-        <v>63.197395833333339</v>
+        <v>52.879687500000003</v>
       </c>
       <c r="I56">
         <f t="shared" si="5"/>
-        <v>42.222870370370366</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57">
-        <v>285</v>
-      </c>
-      <c r="C57">
-        <v>1088.45</v>
-      </c>
-      <c r="D57">
-        <v>484.435</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
+        <v>50.941388888888895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>17</v>
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>332.33300000000003</v>
       </c>
       <c r="H57">
         <f t="shared" si="4"/>
-        <v>64.528645833333329</v>
+        <v>52.32395833333333</v>
       </c>
       <c r="I57">
         <f t="shared" si="5"/>
-        <v>41.71407407407407</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9">
+        <v>50.896851851851856</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58">
-        <v>286</v>
+        <v>328.82900000000001</v>
       </c>
       <c r="C58">
-        <v>1103.3599999999999</v>
+        <v>1033.69</v>
       </c>
       <c r="D58">
-        <v>481.108</v>
+        <v>551.32500000000005</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>332.83300000000003</v>
       </c>
       <c r="H58">
         <f t="shared" si="4"/>
-        <v>66.122916666666669</v>
+        <v>51.530364583333338</v>
       </c>
       <c r="I58">
         <f t="shared" si="5"/>
-        <v>41.102407407407405</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9">
+        <v>50.827500000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59">
-        <v>287</v>
+        <v>329.32900000000001</v>
       </c>
       <c r="C59">
-        <v>1119.53</v>
+        <v>1031.02</v>
       </c>
       <c r="D59">
-        <v>477.339</v>
+        <v>551.65899999999999</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>333.33300000000003</v>
       </c>
       <c r="H59">
         <f t="shared" si="4"/>
-        <v>68.0703125</v>
+        <v>50.708177083333332</v>
       </c>
       <c r="I59">
         <f t="shared" si="5"/>
-        <v>40.352777777777774</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
+        <v>50.719351851851854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60">
-        <v>288</v>
+        <v>329.83</v>
       </c>
       <c r="C60">
-        <v>1137.21</v>
+        <v>1030.1300000000001</v>
       </c>
       <c r="D60">
-        <v>473.041</v>
+        <v>551.91600000000005</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="G60">
         <f t="shared" ref="G60:G79" si="6">B68</f>
-        <v>296</v>
+        <v>333.834</v>
       </c>
       <c r="H60">
         <f t="shared" ref="H60:H79" si="7">C68*100/$H$1</f>
-        <v>70.5078125</v>
+        <v>49.692031249999999</v>
       </c>
       <c r="I60">
         <f t="shared" ref="I60:I79" si="8">D68*100/$I$1</f>
-        <v>39.411666666666669</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
+        <v>50.606851851851843</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="B61">
-        <v>289</v>
+        <v>330.33100000000002</v>
       </c>
       <c r="C61">
-        <v>1156.72</v>
+        <v>1029.3800000000001</v>
       </c>
       <c r="D61">
-        <v>468.09699999999998</v>
+        <v>551.79499999999996</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="G61">
         <f t="shared" si="6"/>
-        <v>297</v>
+        <v>334.334</v>
       </c>
       <c r="H61">
         <f t="shared" si="7"/>
-        <v>73.655208333333334</v>
+        <v>48.677968749999998</v>
       </c>
       <c r="I61">
         <f t="shared" si="8"/>
-        <v>38.193240740740748</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
+        <v>50.478240740740738</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62">
-        <v>290</v>
+        <v>330.83100000000002</v>
       </c>
       <c r="C62">
-        <v>1173</v>
+        <v>1027.48</v>
       </c>
       <c r="D62">
-        <v>464.63900000000001</v>
+        <v>551.31700000000001</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="G62">
         <f t="shared" si="6"/>
-        <v>298</v>
+        <v>334.83499999999998</v>
       </c>
       <c r="H62">
         <f t="shared" si="7"/>
-        <v>77.884895833333331</v>
+        <v>47.456041666666664</v>
       </c>
       <c r="I62">
         <f t="shared" si="8"/>
-        <v>36.551759259259264</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
+        <v>50.316944444444445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63">
-        <v>291</v>
+        <v>331.33199999999999</v>
       </c>
       <c r="C63">
-        <v>1191.69</v>
+        <v>1024.28</v>
       </c>
       <c r="D63">
-        <v>460.654</v>
+        <v>550.86199999999997</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="G63">
         <f t="shared" si="6"/>
-        <v>299</v>
+        <v>335.33499999999998</v>
       </c>
       <c r="H63">
         <f t="shared" si="7"/>
-        <v>83.881249999999994</v>
+        <v>46.326979166666661</v>
       </c>
       <c r="I63">
         <f t="shared" si="8"/>
-        <v>34.219814814814818</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
+        <v>50.187870370370369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64">
-        <v>292</v>
+        <v>331.83199999999999</v>
       </c>
       <c r="C64">
-        <v>1213.3900000000001</v>
+        <v>1015.29</v>
       </c>
       <c r="D64">
-        <v>456.00700000000001</v>
+        <v>550.16700000000003</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="G64">
         <f t="shared" si="6"/>
-        <v>300</v>
+        <v>335.83600000000001</v>
       </c>
       <c r="H64">
         <f t="shared" si="7"/>
-        <v>93.06979166666666</v>
+        <v>45.107760416666665</v>
       </c>
       <c r="I64">
         <f t="shared" si="8"/>
-        <v>30.64037037037037</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>50.042685185185185</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65">
-        <v>293</v>
+        <v>332.33300000000003</v>
       </c>
       <c r="C65">
-        <v>1238.95</v>
+        <v>1004.62</v>
       </c>
       <c r="D65">
-        <v>450.512</v>
+        <v>549.68600000000004</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="G65">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>336.33600000000001</v>
       </c>
       <c r="H65">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>43.913437500000001</v>
       </c>
       <c r="I65">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>49.883148148148152</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66">
-        <v>294</v>
+        <v>332.83300000000003</v>
       </c>
       <c r="C66">
-        <v>1269.56</v>
+        <v>989.38300000000004</v>
       </c>
       <c r="D66">
-        <v>443.90600000000001</v>
+        <v>548.93700000000001</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="G66">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>336.83699999999999</v>
       </c>
       <c r="H66">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>42.767031249999995</v>
       </c>
       <c r="I66">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>49.775370370370368</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67">
-        <v>295</v>
+        <v>333.33300000000003</v>
       </c>
       <c r="C67">
-        <v>1306.95</v>
+        <v>973.59699999999998</v>
       </c>
       <c r="D67">
-        <v>435.81</v>
+        <v>547.76900000000001</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="G67">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>337.33699999999999</v>
       </c>
       <c r="H67">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>41.055885416666669</v>
       </c>
       <c r="I67">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>49.684537037037032</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68">
-        <v>296</v>
+        <v>333.834</v>
       </c>
       <c r="C68">
-        <v>1353.75</v>
+        <v>954.08699999999999</v>
       </c>
       <c r="D68">
-        <v>425.64600000000002</v>
+        <v>546.55399999999997</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="G68">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>337.83800000000002</v>
       </c>
       <c r="H68">
         <f t="shared" si="7"/>
-        <v>61.864583333333336</v>
+        <v>39.520625000000003</v>
       </c>
       <c r="I68">
         <f t="shared" si="8"/>
-        <v>42.745740740740743</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>49.607037037037038</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69">
-        <v>297</v>
+        <v>334.334</v>
       </c>
       <c r="C69">
-        <v>1414.18</v>
+        <v>934.61699999999996</v>
       </c>
       <c r="D69">
-        <v>412.48700000000002</v>
+        <v>545.16499999999996</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="G69">
         <f t="shared" si="6"/>
-        <v>130</v>
+        <v>338.33800000000002</v>
       </c>
       <c r="H69">
         <f t="shared" si="7"/>
-        <v>63.426562500000003</v>
+        <v>38.05020833333333</v>
       </c>
       <c r="I69">
         <f t="shared" si="8"/>
-        <v>41.763611111111118</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>49.52</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70">
-        <v>298</v>
+        <v>334.83499999999998</v>
       </c>
       <c r="C70">
-        <v>1495.39</v>
+        <v>911.15599999999995</v>
       </c>
       <c r="D70">
-        <v>394.75900000000001</v>
+        <v>543.423</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="G70">
         <f t="shared" si="6"/>
-        <v>131</v>
+        <v>338.839</v>
       </c>
       <c r="H70">
         <f t="shared" si="7"/>
-        <v>65.475520833333334</v>
+        <v>36.412708333333335</v>
       </c>
       <c r="I70">
         <f t="shared" si="8"/>
-        <v>40.515092592592588</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>49.332407407407409</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71">
-        <v>299</v>
+        <v>335.33499999999998</v>
       </c>
       <c r="C71">
-        <v>1610.52</v>
+        <v>889.47799999999995</v>
       </c>
       <c r="D71">
-        <v>369.57400000000001</v>
+        <v>542.029</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="G71">
         <f t="shared" si="6"/>
-        <v>132</v>
+        <v>339.339</v>
       </c>
       <c r="H71">
         <f t="shared" si="7"/>
-        <v>67.705208333333331</v>
+        <v>34.807864583333334</v>
       </c>
       <c r="I71">
         <f t="shared" si="8"/>
-        <v>38.870925925925924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>49.094537037037036</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72">
-        <v>300</v>
+        <v>335.83600000000001</v>
       </c>
       <c r="C72">
-        <v>1786.94</v>
+        <v>866.06899999999996</v>
       </c>
       <c r="D72">
-        <v>330.916</v>
+        <v>540.46100000000001</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="G72">
         <f t="shared" si="6"/>
-        <v>133</v>
+        <v>339.84</v>
       </c>
       <c r="H72">
         <f t="shared" si="7"/>
-        <v>71.278125000000003</v>
+        <v>32.934843749999999</v>
       </c>
       <c r="I72">
         <f t="shared" si="8"/>
-        <v>37.950925925925922</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>48.753333333333323</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73">
+        <v>336.33600000000001</v>
+      </c>
+      <c r="C73">
+        <v>843.13800000000003</v>
+      </c>
+      <c r="D73">
+        <v>538.73800000000006</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
       <c r="G73">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>340.34</v>
       </c>
       <c r="H73">
         <f t="shared" si="7"/>
-        <v>76.646874999999994</v>
+        <v>31.013906249999998</v>
       </c>
       <c r="I73">
         <f t="shared" si="8"/>
-        <v>36.687129629629631</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>49.371666666666677</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74">
+        <v>336.83699999999999</v>
+      </c>
+      <c r="C74">
+        <v>821.12699999999995</v>
+      </c>
+      <c r="D74">
+        <v>537.57399999999996</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
       <c r="G74">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>340.84100000000001</v>
       </c>
       <c r="H74">
         <f t="shared" si="7"/>
-        <v>83.417708333333337</v>
+        <v>28.784062500000001</v>
       </c>
       <c r="I74">
         <f t="shared" si="8"/>
-        <v>34.835277777777776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" t="s">
-        <v>17</v>
+        <v>49.829907407407411</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75">
+        <v>337.33699999999999</v>
+      </c>
+      <c r="C75">
+        <v>788.27300000000002</v>
+      </c>
+      <c r="D75">
+        <v>536.59299999999996</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
       </c>
       <c r="G75">
         <f t="shared" si="6"/>
-        <v>136</v>
+        <v>341.34100000000001</v>
       </c>
       <c r="H75">
         <f t="shared" si="7"/>
-        <v>94.876041666666666</v>
+        <v>26.52401041666667</v>
       </c>
       <c r="I75">
         <f t="shared" si="8"/>
-        <v>32.983425925925921</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>49.30601851851852</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76">
-        <v>129</v>
+        <v>337.83800000000002</v>
       </c>
       <c r="C76">
-        <v>1187.8</v>
+        <v>758.79600000000005</v>
       </c>
       <c r="D76">
-        <v>461.654</v>
+        <v>535.75599999999997</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="G76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>341.84199999999998</v>
       </c>
       <c r="H76">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23.44572916666667</v>
       </c>
       <c r="I76">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>49.703981481481485</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77">
-        <v>130</v>
+        <v>338.33800000000002</v>
       </c>
       <c r="C77">
-        <v>1217.79</v>
+        <v>730.56399999999996</v>
       </c>
       <c r="D77">
-        <v>451.04700000000003</v>
+        <v>534.81600000000003</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="G77">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>342.34199999999998</v>
       </c>
       <c r="H77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.087343750000002</v>
       </c>
       <c r="I77">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>50.032777777777781</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78">
-        <v>131</v>
+        <v>338.839</v>
       </c>
       <c r="C78">
-        <v>1257.1300000000001</v>
+        <v>699.12400000000002</v>
       </c>
       <c r="D78">
-        <v>437.56299999999999</v>
+        <v>532.79</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="G78">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>342.84300000000002</v>
       </c>
       <c r="H78">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>15.675781250000002</v>
       </c>
       <c r="I78">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>49.610833333333339</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79">
-        <v>132</v>
+        <v>339.339</v>
       </c>
       <c r="C79">
-        <v>1299.94</v>
+        <v>668.31100000000004</v>
       </c>
       <c r="D79">
-        <v>419.80599999999998</v>
+        <v>530.221</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="G79">
         <f t="shared" si="6"/>
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <f t="shared" si="7"/>
-        <v>62.19583333333334</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <f t="shared" si="8"/>
-        <v>44.991203703703704</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80">
-        <v>133</v>
+        <v>339.84</v>
       </c>
       <c r="C80">
-        <v>1368.54</v>
+        <v>632.34900000000005</v>
       </c>
       <c r="D80">
-        <v>409.87</v>
+        <v>526.53599999999994</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3260,13 +3288,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="B81">
-        <v>134</v>
+        <v>340.34</v>
       </c>
       <c r="C81">
-        <v>1471.62</v>
+        <v>595.46699999999998</v>
       </c>
       <c r="D81">
-        <v>396.221</v>
+        <v>533.21400000000006</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3274,13 +3302,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="B82">
-        <v>135</v>
+        <v>340.84100000000001</v>
       </c>
       <c r="C82">
-        <v>1601.62</v>
+        <v>552.654</v>
       </c>
       <c r="D82">
-        <v>376.221</v>
+        <v>538.16300000000001</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3288,63 +3316,63 @@
     </row>
     <row r="83" spans="1:5">
       <c r="B83">
-        <v>136</v>
+        <v>341.34100000000001</v>
       </c>
       <c r="C83">
-        <v>1821.62</v>
+        <v>509.26100000000002</v>
       </c>
       <c r="D83">
-        <v>356.221</v>
+        <v>532.505</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
     </row>
+    <row r="84" spans="1:5">
+      <c r="B84">
+        <v>341.84199999999998</v>
+      </c>
+      <c r="C84">
+        <v>450.15800000000002</v>
+      </c>
+      <c r="D84">
+        <v>536.803</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="B85">
+        <v>342.34199999999998</v>
+      </c>
+      <c r="C85">
+        <v>385.67700000000002</v>
+      </c>
+      <c r="D85">
+        <v>540.35400000000004</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
     <row r="86" spans="1:5">
-      <c r="A86" t="s">
+      <c r="B86">
+        <v>342.84300000000002</v>
+      </c>
+      <c r="C86">
+        <v>300.97500000000002</v>
+      </c>
+      <c r="D86">
+        <v>535.79700000000003</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="B87">
-        <v>246</v>
-      </c>
-      <c r="C87">
-        <v>1194.1600000000001</v>
-      </c>
-      <c r="D87">
-        <v>485.90499999999997</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="B88">
-        <v>247</v>
-      </c>
-      <c r="C88">
-        <v>1230.47</v>
-      </c>
-      <c r="D88">
-        <v>484.06400000000002</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="B89">
-        <v>248</v>
-      </c>
-      <c r="C89">
-        <v>1270.99</v>
-      </c>
-      <c r="D89">
-        <v>473.66699999999997</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4337,9 +4365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
@@ -4373,28 +4399,28 @@
         <v>29.97</v>
       </c>
       <c r="G3">
-        <f ca="1">ROUNDUP(K3/2,0)</f>
-        <v>353</v>
+        <f ca="1">ROUNDUP(K3/2,0)+1</f>
+        <v>481</v>
       </c>
       <c r="H3">
         <f ca="1">L3*100/$H$1</f>
-        <v>49.49223958333333</v>
+        <v>57.04999999999999</v>
       </c>
       <c r="I3">
         <f ca="1">M3*100/$I$1</f>
-        <v>50.165555555555557</v>
+        <v>50.906018518518522</v>
       </c>
       <c r="K3">
         <f ca="1">OFFSET(B$11,2*ROW()-6,0)</f>
-        <v>705</v>
+        <v>960</v>
       </c>
       <c r="L3">
         <f ca="1">OFFSET(C$11,2*ROW()-6,0)</f>
-        <v>950.25099999999998</v>
+        <v>1095.3599999999999</v>
       </c>
       <c r="M3">
         <f ca="1">OFFSET(D$11,2*ROW()-6,0)</f>
-        <v>541.78800000000001</v>
+        <v>549.78499999999997</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4405,28 +4431,28 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G29" ca="1" si="0">ROUNDUP(K4/2,0)</f>
-        <v>354</v>
+        <f t="shared" ref="G4:G54" ca="1" si="0">ROUNDUP(K4/2,0)+1</f>
+        <v>482</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H29" ca="1" si="1">L4*100/$H$1</f>
-        <v>49.47989583333333</v>
+        <f t="shared" ref="H4:H54" ca="1" si="1">L4*100/$H$1</f>
+        <v>56.651562499999997</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I29" ca="1" si="2">M4*100/$I$1</f>
-        <v>50.132222222222225</v>
+        <f t="shared" ref="I4:I54" ca="1" si="2">M4*100/$I$1</f>
+        <v>50.871018518518525</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K5" ca="1" si="3">OFFSET(B$11,2*ROW()-6,0)</f>
-        <v>707</v>
+        <v>962</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L5" ca="1" si="4">OFFSET(C$11,2*ROW()-6,0)</f>
-        <v>950.01400000000001</v>
+        <v>1087.71</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M5" ca="1" si="5">OFFSET(D$11,2*ROW()-6,0)</f>
-        <v>541.428</v>
+        <v>549.40700000000004</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4438,27 +4464,27 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>355</v>
+        <v>483</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>49.456822916666667</v>
+        <v>56.125520833333326</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="2"/>
-        <v>50.094629629629637</v>
+        <v>50.858333333333334</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="3"/>
-        <v>709</v>
+        <v>964</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="4"/>
-        <v>949.57100000000003</v>
+        <v>1077.6099999999999</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="5"/>
-        <v>541.02200000000005</v>
+        <v>549.27</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4470,27 +4496,27 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>356</v>
+        <v>484</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>49.4215625</v>
+        <v>55.596874999999997</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="2"/>
-        <v>50.052037037037039</v>
+        <v>50.842685185185182</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K50" ca="1" si="6">OFFSET(B$11,2*ROW()-6,0)</f>
-        <v>711</v>
+        <v>966</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L50" ca="1" si="7">OFFSET(C$11,2*ROW()-6,0)</f>
-        <v>948.89400000000001</v>
+        <v>1067.46</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6:M50" ca="1" si="8">OFFSET(D$11,2*ROW()-6,0)</f>
-        <v>540.56200000000001</v>
+        <v>549.101</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4502,53 +4528,53 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>357</v>
+        <v>485</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>49.372291666666669</v>
+        <v>55.247395833333336</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="2"/>
-        <v>50.003888888888895</v>
+        <v>50.845277777777781</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
-        <v>713</v>
+        <v>968</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>947.94799999999998</v>
+        <v>1060.75</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="8"/>
-        <v>540.04200000000003</v>
+        <v>549.12900000000002</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>358</v>
+        <v>486</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>49.307031250000001</v>
+        <v>55.470312499999999</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="2"/>
-        <v>49.949351851851851</v>
+        <v>50.852870370370368</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>715</v>
+        <v>970</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>946.69500000000005</v>
+        <v>1065.03</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="8"/>
-        <v>539.45299999999997</v>
+        <v>549.21100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4560,27 +4586,27 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>359</v>
+        <v>487</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>49.22322916666667</v>
+        <v>55.690104166666664</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="2"/>
-        <v>49.887222222222228</v>
+        <v>50.85962962962963</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>717</v>
+        <v>972</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>945.08600000000001</v>
+        <v>1069.25</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="8"/>
-        <v>538.78200000000004</v>
+        <v>549.28399999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4598,1786 +4624,1786 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>488</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>49.117864583333336</v>
+        <v>56.003124999999997</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="2"/>
-        <v>49.816481481481482</v>
+        <v>50.85962962962963</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>719</v>
+        <v>974</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>943.06299999999999</v>
+        <v>1075.26</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="8"/>
-        <v>538.01800000000003</v>
+        <v>549.28399999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="B11">
-        <v>705</v>
+        <v>960</v>
       </c>
       <c r="C11">
-        <v>950.25099999999998</v>
+        <v>1095.3599999999999</v>
       </c>
       <c r="D11">
-        <v>541.78800000000001</v>
+        <v>549.78499999999997</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>361</v>
+        <v>489</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>49.198020833333331</v>
+        <v>56.421354166666667</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="2"/>
-        <v>49.643240740740744</v>
+        <v>50.852407407407405</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>721</v>
+        <v>976</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>944.60199999999998</v>
+        <v>1083.29</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="8"/>
-        <v>536.14700000000005</v>
+        <v>549.20600000000002</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="B12">
-        <v>706</v>
+        <v>961</v>
       </c>
       <c r="C12">
-        <v>950.15700000000004</v>
+        <v>1092.6099999999999</v>
       </c>
       <c r="D12">
-        <v>541.61400000000003</v>
+        <v>549.47900000000004</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>362</v>
+        <v>490</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>49.22265625</v>
+        <v>56.836979166666666</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="2"/>
-        <v>49.591759259259256</v>
+        <v>50.844537037037036</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>723</v>
+        <v>978</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>945.07500000000005</v>
+        <v>1091.27</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>535.59100000000001</v>
+        <v>549.12099999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="B13">
-        <v>707</v>
+        <v>962</v>
       </c>
       <c r="C13">
-        <v>950.01400000000001</v>
+        <v>1087.71</v>
       </c>
       <c r="D13">
-        <v>541.428</v>
+        <v>549.40700000000004</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
+        <v>491</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>49.311770833333327</v>
+        <v>57.227083333333333</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="2"/>
-        <v>49.565925925925931</v>
+        <v>50.795092592592589</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>725</v>
+        <v>980</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>946.78599999999994</v>
+        <v>1098.76</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
-        <v>535.31200000000001</v>
+        <v>548.58699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="B14">
-        <v>708</v>
+        <v>963</v>
       </c>
       <c r="C14">
-        <v>949.82</v>
+        <v>1082.67</v>
       </c>
       <c r="D14">
-        <v>541.23099999999999</v>
+        <v>549.34199999999998</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>364</v>
+        <v>492</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>49.790989583333335</v>
+        <v>57.590625000000003</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="2"/>
-        <v>49.531759259259253</v>
+        <v>50.698333333333338</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>727</v>
+        <v>982</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>955.98699999999997</v>
+        <v>1105.74</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
-        <v>534.94299999999998</v>
+        <v>547.54200000000003</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="B15">
-        <v>709</v>
+        <v>964</v>
       </c>
       <c r="C15">
-        <v>949.57100000000003</v>
+        <v>1077.6099999999999</v>
       </c>
       <c r="D15">
-        <v>541.02200000000005</v>
+        <v>549.27</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>365</v>
+        <v>493</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>49.509114583333336</v>
+        <v>57.951041666666676</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>49.487592592592591</v>
+        <v>50.6</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>729</v>
+        <v>984</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>950.57500000000005</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>534.46600000000001</v>
+        <v>546.48</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="B16">
-        <v>710</v>
+        <v>965</v>
       </c>
       <c r="C16">
-        <v>949.26400000000001</v>
+        <v>1072.54</v>
       </c>
       <c r="D16">
-        <v>540.79899999999998</v>
+        <v>549.19000000000005</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>366</v>
+        <v>494</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>49.188437499999999</v>
+        <v>58.259374999999999</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>49.431111111111107</v>
+        <v>50.567314814814814</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>731</v>
+        <v>986</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>944.41800000000001</v>
+        <v>1118.58</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
-        <v>533.85599999999999</v>
+        <v>546.12699999999995</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17">
-        <v>711</v>
+        <v>966</v>
       </c>
       <c r="C17">
-        <v>948.89400000000001</v>
+        <v>1067.46</v>
       </c>
       <c r="D17">
-        <v>540.56200000000001</v>
+        <v>549.101</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>367</v>
+        <v>495</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>48.819895833333334</v>
+        <v>58.508333333333326</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>49.359537037037036</v>
+        <v>50.608796296296305</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>733</v>
+        <v>988</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>937.34199999999998</v>
+        <v>1123.3599999999999</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
-        <v>533.08299999999997</v>
+        <v>546.57500000000005</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18">
-        <v>712</v>
+        <v>967</v>
       </c>
       <c r="C18">
-        <v>948.45699999999999</v>
+        <v>1062.3499999999999</v>
       </c>
       <c r="D18">
-        <v>540.30999999999995</v>
+        <v>549.005</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>368</v>
+        <v>496</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>48.599687500000002</v>
+        <v>58.75364583333333</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>49.268888888888888</v>
+        <v>50.649166666666666</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>735</v>
+        <v>990</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
-        <v>933.11400000000003</v>
+        <v>1128.07</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>532.10400000000004</v>
+        <v>547.01099999999997</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19">
-        <v>713</v>
+        <v>968</v>
       </c>
       <c r="C19">
-        <v>947.94799999999998</v>
+        <v>1060.75</v>
       </c>
       <c r="D19">
-        <v>540.04200000000003</v>
+        <v>549.12900000000002</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>369</v>
+        <v>497</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>48.302916666666668</v>
+        <v>58.94114583333333</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>49.153888888888886</v>
+        <v>50.671666666666667</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>737</v>
+        <v>992</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
-        <v>927.41600000000005</v>
+        <v>1131.67</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="8"/>
-        <v>530.86199999999997</v>
+        <v>547.25400000000002</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20">
-        <v>714</v>
+        <v>969</v>
       </c>
       <c r="C20">
-        <v>947.36300000000006</v>
+        <v>1062.9000000000001</v>
       </c>
       <c r="D20">
-        <v>539.75699999999995</v>
+        <v>549.17100000000005</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>370</v>
+        <v>498</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>47.830624999999991</v>
+        <v>58.901562500000004</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>48.855925925925931</v>
+        <v>50.675185185185192</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>739</v>
+        <v>994</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>918.34799999999996</v>
+        <v>1130.9100000000001</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>527.64400000000001</v>
+        <v>547.29200000000003</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21">
-        <v>715</v>
+        <v>970</v>
       </c>
       <c r="C21">
-        <v>946.69500000000005</v>
+        <v>1065.03</v>
       </c>
       <c r="D21">
-        <v>539.45299999999997</v>
+        <v>549.21100000000001</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>371</v>
+        <v>499</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="1"/>
-        <v>46.778802083333332</v>
+        <v>58.818750000000001</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>48.45</v>
+        <v>50.677499999999995</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>741</v>
+        <v>996</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
-        <v>898.15300000000002</v>
+        <v>1129.32</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="8"/>
-        <v>523.26</v>
+        <v>547.31700000000001</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22">
-        <v>716</v>
+        <v>971</v>
       </c>
       <c r="C22">
-        <v>945.93799999999999</v>
+        <v>1067.1500000000001</v>
       </c>
       <c r="D22">
-        <v>539.12800000000004</v>
+        <v>549.24900000000002</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>372</v>
+        <v>500</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="1"/>
-        <v>45.927968749999998</v>
+        <v>58.802083333333336</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>47.93888888888889</v>
+        <v>50.68703703703703</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>743</v>
+        <v>998</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>881.81700000000001</v>
+        <v>1129</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>517.74</v>
+        <v>547.41999999999996</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23">
-        <v>717</v>
+        <v>972</v>
       </c>
       <c r="C23">
-        <v>945.08600000000001</v>
+        <v>1069.25</v>
       </c>
       <c r="D23">
-        <v>538.78200000000004</v>
+        <v>549.28399999999999</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="0"/>
-        <v>373</v>
+        <v>501</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="1"/>
-        <v>43.569062499999994</v>
+        <v>58.85885416666666</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>47.282592592592593</v>
+        <v>50.703703703703702</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>745</v>
+        <v>1000</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>836.52599999999995</v>
+        <v>1130.0899999999999</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>510.65199999999999</v>
+        <v>547.6</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24">
-        <v>718</v>
+        <v>973</v>
       </c>
       <c r="C24">
-        <v>944.13099999999997</v>
+        <v>1071.3399999999999</v>
       </c>
       <c r="D24">
-        <v>536.41300000000001</v>
+        <v>549.31700000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="0"/>
-        <v>374</v>
+        <v>502</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="1"/>
-        <v>40.642239583333335</v>
+        <v>58.908333333333331</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>46.692407407407408</v>
+        <v>50.717592592592595</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>747</v>
+        <v>1002</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>780.33100000000002</v>
+        <v>1131.04</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>504.27800000000002</v>
+        <v>547.75</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25">
-        <v>719</v>
+        <v>974</v>
       </c>
       <c r="C25">
-        <v>943.06299999999999</v>
+        <v>1075.26</v>
       </c>
       <c r="D25">
-        <v>538.01800000000003</v>
+        <v>549.28399999999999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="0"/>
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="1"/>
-        <v>37.235520833333332</v>
+        <v>58.857291666666669</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>46.239074074074068</v>
+        <v>50.702592592592588</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>749</v>
+        <v>1004</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>714.92200000000003</v>
+        <v>1130.06</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
-        <v>499.38200000000001</v>
+        <v>547.58799999999997</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26">
-        <v>720</v>
+        <v>975</v>
       </c>
       <c r="C26">
-        <v>943.44799999999998</v>
+        <v>1079.28</v>
       </c>
       <c r="D26">
-        <v>537.20600000000002</v>
+        <v>549.24599999999998</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <v>504</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="1"/>
-        <v>31.938645833333332</v>
+        <v>58.695833333333333</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>45.617407407407413</v>
+        <v>50.656111111111109</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>751</v>
+        <v>1006</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>613.22199999999998</v>
+        <v>1126.96</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>492.66800000000001</v>
+        <v>547.08600000000001</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27">
-        <v>721</v>
+        <v>976</v>
       </c>
       <c r="C27">
-        <v>944.60199999999998</v>
+        <v>1083.29</v>
       </c>
       <c r="D27">
-        <v>536.14700000000005</v>
+        <v>549.20600000000002</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="0"/>
-        <v>377</v>
+        <v>505</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="1"/>
-        <v>23.83640625</v>
+        <v>58.52708333333333</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>44.703703703703702</v>
+        <v>50.606574074074082</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>753</v>
+        <v>1008</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>457.65899999999999</v>
+        <v>1123.72</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
-        <v>482.8</v>
+        <v>546.55100000000004</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28">
-        <v>722</v>
+        <v>977</v>
       </c>
       <c r="C28">
-        <v>945.05499999999995</v>
+        <v>1087.28</v>
       </c>
       <c r="D28">
-        <v>535.702</v>
+        <v>549.16399999999999</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="0"/>
-        <v>378</v>
+        <v>506</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="1"/>
-        <v>10.774114583333333</v>
+        <v>58.622916666666669</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>43.213703703703708</v>
+        <v>50.606574074074082</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>755</v>
+        <v>1010</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>206.863</v>
+        <v>1125.56</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>466.70800000000003</v>
+        <v>546.55100000000004</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29">
-        <v>723</v>
+        <v>978</v>
       </c>
       <c r="C29">
-        <v>945.07500000000005</v>
+        <v>1091.27</v>
       </c>
       <c r="D29">
-        <v>535.59100000000001</v>
+        <v>549.12099999999998</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>59.018750000000004</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>50.665092592592593</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1012</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1133.1600000000001</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>547.18299999999999</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30">
-        <v>724</v>
+        <v>979</v>
       </c>
       <c r="C30">
-        <v>944.98900000000003</v>
+        <v>1095.24</v>
       </c>
       <c r="D30">
-        <v>535.46199999999999</v>
+        <v>549.077</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" ref="G28:G46" ca="1" si="9">ROUNDUP(K30/2,0)</f>
-        <v>147</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>508</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H28:H46" ca="1" si="10">L30*100/$H$1</f>
-        <v>64.528645833333329</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>59.411458333333336</v>
       </c>
       <c r="I30">
-        <f t="shared" ref="I28:I46" ca="1" si="11">M30*100/$I$1</f>
-        <v>41.71407407407407</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.724537037037045</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>293</v>
+        <v>1014</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>1238.95</v>
+        <v>1140.7</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>450.512</v>
+        <v>547.82500000000005</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31">
-        <v>725</v>
+        <v>980</v>
       </c>
       <c r="C31">
-        <v>946.78599999999994</v>
+        <v>1098.76</v>
       </c>
       <c r="D31">
-        <v>535.31200000000001</v>
+        <v>548.58699999999999</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="9"/>
-        <v>148</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>509</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="10"/>
-        <v>68.0703125</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>59.888020833333329</v>
       </c>
       <c r="I31">
-        <f t="shared" ca="1" si="11"/>
-        <v>40.352777777777774</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.755277777777785</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>295</v>
+        <v>1016</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>1306.95</v>
+        <v>1149.8499999999999</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
-        <v>435.81</v>
+        <v>548.15700000000004</v>
       </c>
     </row>
     <row r="32" spans="2:13">
       <c r="B32">
-        <v>726</v>
+        <v>981</v>
       </c>
       <c r="C32">
-        <v>950.45600000000002</v>
+        <v>1102.26</v>
       </c>
       <c r="D32">
-        <v>535.14</v>
+        <v>548.06700000000001</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="9"/>
-        <v>149</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>510</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="10"/>
-        <v>73.655208333333334</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.401562499999997</v>
       </c>
       <c r="I32">
-        <f t="shared" ca="1" si="11"/>
-        <v>38.193240740740748</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.767685185185194</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>297</v>
+        <v>1018</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>1414.18</v>
+        <v>1159.71</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>412.48700000000002</v>
+        <v>548.29100000000005</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33">
-        <v>727</v>
+        <v>982</v>
       </c>
       <c r="C33">
-        <v>955.98699999999997</v>
+        <v>1105.74</v>
       </c>
       <c r="D33">
-        <v>534.94299999999998</v>
+        <v>547.54200000000003</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="9"/>
-        <v>150</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>511</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="10"/>
-        <v>83.881249999999994</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.842187500000001</v>
       </c>
       <c r="I33">
-        <f t="shared" ca="1" si="11"/>
-        <v>34.219814814814818</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.792870370370366</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>299</v>
+        <v>1020</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="7"/>
-        <v>1610.52</v>
+        <v>1168.17</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="8"/>
-        <v>369.57400000000001</v>
+        <v>548.56299999999999</v>
       </c>
     </row>
     <row r="34" spans="2:13">
       <c r="B34">
-        <v>728</v>
+        <v>983</v>
       </c>
       <c r="C34">
-        <v>953.36500000000001</v>
+        <v>1109.2</v>
       </c>
       <c r="D34">
-        <v>534.71900000000005</v>
+        <v>547.01300000000003</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>512</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.960416666666667</v>
       </c>
       <c r="I34">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.797314814814811</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1170.44</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>548.61099999999999</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35">
-        <v>729</v>
+        <v>984</v>
       </c>
       <c r="C35">
-        <v>950.57500000000005</v>
+        <v>1112.6600000000001</v>
       </c>
       <c r="D35">
-        <v>534.46600000000001</v>
+        <v>546.48</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="G35">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>513</v>
       </c>
       <c r="H35">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.719270833333333</v>
       </c>
       <c r="I35">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.783240740740737</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1024</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1165.81</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>548.45899999999995</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36">
-        <v>730</v>
+        <v>985</v>
       </c>
       <c r="C36">
-        <v>945.6</v>
+        <v>1116.0999999999999</v>
       </c>
       <c r="D36">
-        <v>534.17999999999995</v>
+        <v>545.94299999999998</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="G36">
-        <f t="shared" ca="1" si="9"/>
-        <v>314</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>514</v>
       </c>
       <c r="H36">
-        <f t="shared" ca="1" si="10"/>
-        <v>99.385416666666671</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.471874999999997</v>
       </c>
       <c r="I36">
-        <f t="shared" ca="1" si="11"/>
-        <v>47.284166666666671</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.772129629629639</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>627</v>
+        <v>1026</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="7"/>
-        <v>1908.2</v>
+        <v>1161.06</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="8"/>
-        <v>510.66899999999998</v>
+        <v>548.33900000000006</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37">
-        <v>731</v>
+        <v>986</v>
       </c>
       <c r="C37">
-        <v>944.41800000000001</v>
+        <v>1118.58</v>
       </c>
       <c r="D37">
-        <v>533.85599999999999</v>
+        <v>546.12699999999995</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>515</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.434374999999996</v>
       </c>
       <c r="I37">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.723796296296292</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1028</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1160.3399999999999</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>547.81700000000001</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38">
-        <v>732</v>
+        <v>987</v>
       </c>
       <c r="C38">
-        <v>939.00800000000004</v>
+        <v>1120.98</v>
       </c>
       <c r="D38">
-        <v>533.49300000000005</v>
+        <v>546.35299999999995</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="9"/>
-        <v>177</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>516</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="10"/>
-        <v>6.8208333333333337</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.639062500000001</v>
       </c>
       <c r="I38">
-        <f t="shared" ca="1" si="11"/>
-        <v>44.444166666666668</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.623703703703704</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>353</v>
+        <v>1030</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="7"/>
-        <v>130.96</v>
+        <v>1164.27</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="8"/>
-        <v>479.99700000000001</v>
+        <v>546.73599999999999</v>
       </c>
     </row>
     <row r="39" spans="2:13">
       <c r="B39">
-        <v>733</v>
+        <v>988</v>
       </c>
       <c r="C39">
-        <v>937.34199999999998</v>
+        <v>1123.3599999999999</v>
       </c>
       <c r="D39">
-        <v>533.08299999999997</v>
+        <v>546.57500000000005</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>517</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60.844791666666666</v>
       </c>
       <c r="I39">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.512592592592583</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1032</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1168.22</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>545.53599999999994</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40">
-        <v>734</v>
+        <v>989</v>
       </c>
       <c r="C40">
-        <v>935.38900000000001</v>
+        <v>1125.73</v>
       </c>
       <c r="D40">
-        <v>532.62300000000005</v>
+        <v>546.79499999999996</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>518</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>61.232812500000001</v>
       </c>
       <c r="I40">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.43518518518519</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1175.67</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>544.70000000000005</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41">
-        <v>735</v>
+        <v>990</v>
       </c>
       <c r="C41">
-        <v>933.11400000000003</v>
+        <v>1128.07</v>
       </c>
       <c r="D41">
-        <v>532.10400000000004</v>
+        <v>547.01099999999997</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>519</v>
       </c>
       <c r="H41">
-        <f t="shared" ca="1" si="10"/>
-        <v>46.530468749999997</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>61.834375000000001</v>
       </c>
       <c r="I41">
-        <f t="shared" ca="1" si="11"/>
-        <v>58.062592592592601</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.400648148148143</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="7"/>
-        <v>893.38499999999999</v>
+        <v>1187.22</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="8"/>
-        <v>627.07600000000002</v>
+        <v>544.327</v>
       </c>
     </row>
     <row r="42" spans="2:13">
       <c r="B42">
-        <v>736</v>
+        <v>991</v>
       </c>
       <c r="C42">
-        <v>930.47299999999996</v>
+        <v>1130.4000000000001</v>
       </c>
       <c r="D42">
-        <v>531.52</v>
+        <v>547.22400000000005</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>520</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="10"/>
-        <v>46.287552083333338</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62.454166666666659</v>
       </c>
       <c r="I42">
-        <f t="shared" ca="1" si="11"/>
-        <v>57.95842592592593</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.357037037037038</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>1038</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="7"/>
-        <v>888.721</v>
+        <v>1199.1199999999999</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="8"/>
-        <v>625.95100000000002</v>
+        <v>543.85599999999999</v>
       </c>
     </row>
     <row r="43" spans="2:13">
       <c r="B43">
-        <v>737</v>
+        <v>992</v>
       </c>
       <c r="C43">
-        <v>927.41600000000005</v>
+        <v>1131.67</v>
       </c>
       <c r="D43">
-        <v>530.86199999999997</v>
+        <v>547.25400000000002</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>521</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="10"/>
-        <v>46.272395833333334</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63.151041666666664</v>
       </c>
       <c r="I43">
-        <f t="shared" ca="1" si="11"/>
-        <v>58.016203703703709</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.252314814814817</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>1040</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="7"/>
-        <v>888.43</v>
+        <v>1212.5</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="8"/>
-        <v>626.57500000000005</v>
+        <v>542.72500000000002</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44">
-        <v>738</v>
+        <v>993</v>
       </c>
       <c r="C44">
-        <v>924.81799999999998</v>
+        <v>1131.68</v>
       </c>
       <c r="D44">
-        <v>529.50400000000002</v>
+        <v>547.27300000000002</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="9"/>
-        <v>42</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>522</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="10"/>
-        <v>46.097812500000003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63.97239583333333</v>
       </c>
       <c r="I44">
-        <f t="shared" ca="1" si="11"/>
-        <v>58.087499999999999</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>50.083703703703705</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>1042</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="7"/>
-        <v>885.07799999999997</v>
+        <v>1228.27</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="8"/>
-        <v>627.34500000000003</v>
+        <v>540.904</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45">
-        <v>739</v>
+        <v>994</v>
       </c>
       <c r="C45">
-        <v>918.34799999999996</v>
+        <v>1130.9100000000001</v>
       </c>
       <c r="D45">
-        <v>527.64400000000001</v>
+        <v>547.29200000000003</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>523</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="10"/>
-        <v>45.94947916666667</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>65.017708333333331</v>
       </c>
       <c r="I45">
-        <f t="shared" ca="1" si="11"/>
-        <v>58.048981481481476</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49.978240740740738</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <v>1044</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="7"/>
-        <v>882.23</v>
+        <v>1248.3399999999999</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="8"/>
-        <v>626.92899999999997</v>
+        <v>539.76499999999999</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46">
-        <v>740</v>
+        <v>995</v>
       </c>
       <c r="C46">
-        <v>907.47900000000004</v>
+        <v>1130.1300000000001</v>
       </c>
       <c r="D46">
-        <v>525.57299999999998</v>
+        <v>547.30700000000002</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="9"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>524</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="10"/>
-        <v>45.888645833333335</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>66.204166666666666</v>
       </c>
       <c r="I46">
-        <f t="shared" ca="1" si="11"/>
-        <v>58.16324074074074</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49.830555555555549</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>1046</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="7"/>
-        <v>881.06200000000001</v>
+        <v>1271.1199999999999</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="8"/>
-        <v>628.16300000000001</v>
+        <v>538.16999999999996</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47">
-        <v>741</v>
+        <v>996</v>
       </c>
       <c r="C47">
-        <v>898.15300000000002</v>
+        <v>1129.32</v>
       </c>
       <c r="D47">
-        <v>523.26</v>
+        <v>547.31700000000001</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" ref="G47:G101" ca="1" si="12">ROUNDUP(K47/2,0)</f>
-        <v>45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>525</v>
       </c>
       <c r="H47">
-        <f t="shared" ref="H47:H101" ca="1" si="13">L47*100/$H$1</f>
-        <v>46.024583333333332</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>67.576041666666669</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47:I101" ca="1" si="14">M47*100/$I$1</f>
-        <v>57.969814814814811</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49.636574074074083</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>1048</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="7"/>
-        <v>883.67200000000003</v>
+        <v>1297.46</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="8"/>
-        <v>626.07399999999996</v>
+        <v>536.07500000000005</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48">
-        <v>742</v>
+        <v>997</v>
       </c>
       <c r="C48">
-        <v>892.29600000000005</v>
+        <v>1128.5</v>
       </c>
       <c r="D48">
-        <v>520.66499999999996</v>
+        <v>547.32399999999996</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="12"/>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>526</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="13"/>
-        <v>45.780625000000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>69.109375</v>
       </c>
       <c r="I48">
-        <f t="shared" ca="1" si="14"/>
-        <v>58.076388888888886</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49.408981481481476</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>1050</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="7"/>
-        <v>878.98800000000006</v>
+        <v>1326.9</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="8"/>
-        <v>627.22500000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>533.61699999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
       <c r="B49">
-        <v>743</v>
+        <v>998</v>
       </c>
       <c r="C49">
-        <v>881.81700000000001</v>
+        <v>1129</v>
       </c>
       <c r="D49">
-        <v>517.74</v>
+        <v>547.41999999999996</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="12"/>
-        <v>47</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>527</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="13"/>
-        <v>45.467864583333331</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>71.07760416666666</v>
       </c>
       <c r="I49">
-        <f t="shared" ca="1" si="14"/>
-        <v>57.895648148148148</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49.15851851851852</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>1052</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="7"/>
-        <v>872.98299999999995</v>
+        <v>1364.69</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="8"/>
-        <v>625.27300000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>530.91200000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
       <c r="B50">
-        <v>744</v>
+        <v>999</v>
       </c>
       <c r="C50">
-        <v>848.60699999999997</v>
+        <v>1129.56</v>
       </c>
       <c r="D50">
-        <v>514.42700000000002</v>
+        <v>547.51400000000001</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="12"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>528</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="13"/>
-        <v>45.651718750000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>73.62552083333334</v>
       </c>
       <c r="I50">
-        <f t="shared" ca="1" si="14"/>
-        <v>57.935740740740741</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>48.860092592592586</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>96</v>
+        <v>1054</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="7"/>
-        <v>876.51300000000003</v>
+        <v>1413.61</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="8"/>
-        <v>625.70600000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>527.68899999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
       <c r="B51">
-        <v>745</v>
+        <v>1000</v>
       </c>
       <c r="C51">
-        <v>836.52599999999995</v>
+        <v>1130.0899999999999</v>
       </c>
       <c r="D51">
-        <v>510.65199999999999</v>
+        <v>547.6</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>529</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="13"/>
-        <v>44.280312500000001</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76.660416666666663</v>
       </c>
       <c r="I51">
-        <f t="shared" ca="1" si="14"/>
-        <v>57.798055555555564</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>48.454074074074072</v>
       </c>
       <c r="K51">
-        <f t="shared" ref="K51:K86" ca="1" si="15">OFFSET(B$11,2*ROW()-6,0)</f>
-        <v>98</v>
+        <f t="shared" ref="K51:K86" ca="1" si="9">OFFSET(B$11,2*ROW()-6,0)</f>
+        <v>1056</v>
       </c>
       <c r="L51">
-        <f t="shared" ref="L51:L86" ca="1" si="16">OFFSET(C$11,2*ROW()-6,0)</f>
-        <v>850.18200000000002</v>
+        <f t="shared" ref="L51:L86" ca="1" si="10">OFFSET(C$11,2*ROW()-6,0)</f>
+        <v>1471.88</v>
       </c>
       <c r="M51">
-        <f t="shared" ref="M51:M86" ca="1" si="17">OFFSET(D$11,2*ROW()-6,0)</f>
-        <v>624.21900000000005</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <f t="shared" ref="M51:M86" ca="1" si="11">OFFSET(D$11,2*ROW()-6,0)</f>
+        <v>523.30399999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
       <c r="B52">
-        <v>746</v>
+        <v>1001</v>
       </c>
       <c r="C52">
-        <v>801.39700000000005</v>
+        <v>1130.58</v>
       </c>
       <c r="D52">
-        <v>506.32100000000003</v>
+        <v>547.67899999999997</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="G52">
-        <f t="shared" ca="1" si="12"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>530</v>
       </c>
       <c r="H52">
-        <f t="shared" ca="1" si="13"/>
-        <v>43.64036458333333</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80.177083333333329</v>
       </c>
       <c r="I52">
-        <f t="shared" ca="1" si="14"/>
-        <v>58.142777777777773</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>47.729814814814809</v>
       </c>
       <c r="K52">
-        <f t="shared" ca="1" si="15"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1058</v>
       </c>
       <c r="L52">
-        <f t="shared" ca="1" si="16"/>
-        <v>837.89499999999998</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1539.4</v>
       </c>
       <c r="M52">
-        <f t="shared" ca="1" si="17"/>
-        <v>627.94200000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <f t="shared" ca="1" si="11"/>
+        <v>515.48199999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
       <c r="B53">
-        <v>747</v>
+        <v>1002</v>
       </c>
       <c r="C53">
-        <v>780.33100000000002</v>
+        <v>1131.04</v>
       </c>
       <c r="D53">
-        <v>504.27800000000002</v>
+        <v>547.75</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>531</v>
       </c>
       <c r="H53">
-        <f t="shared" ca="1" si="13"/>
-        <v>43.069635416666664</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>84.473958333333329</v>
       </c>
       <c r="I53">
-        <f t="shared" ca="1" si="14"/>
-        <v>57.900925925925932</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>46.521018518518524</v>
       </c>
       <c r="K53">
-        <f t="shared" ca="1" si="15"/>
-        <v>102</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1060</v>
       </c>
       <c r="L53">
-        <f t="shared" ca="1" si="16"/>
-        <v>826.93700000000001</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1621.9</v>
       </c>
       <c r="M53">
-        <f t="shared" ca="1" si="17"/>
-        <v>625.33000000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <f t="shared" ca="1" si="11"/>
+        <v>502.42700000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
       <c r="B54">
-        <v>748</v>
+        <v>1003</v>
       </c>
       <c r="C54">
-        <v>745.62</v>
+        <v>1131.46</v>
       </c>
       <c r="D54">
-        <v>502.005</v>
+        <v>547.81200000000001</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>532</v>
       </c>
       <c r="H54">
-        <f t="shared" ca="1" si="13"/>
-        <v>42.709166666666661</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>90.471874999999997</v>
       </c>
       <c r="I54">
-        <f t="shared" ca="1" si="14"/>
-        <v>57.996759259259257</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44.777129629629634</v>
       </c>
       <c r="K54">
-        <f t="shared" ca="1" si="15"/>
-        <v>104</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1062</v>
       </c>
       <c r="L54">
-        <f t="shared" ca="1" si="16"/>
-        <v>820.01599999999996</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1737.06</v>
       </c>
       <c r="M54">
-        <f t="shared" ca="1" si="17"/>
-        <v>626.36500000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <f t="shared" ca="1" si="11"/>
+        <v>483.59300000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
       <c r="B55">
-        <v>749</v>
+        <v>1004</v>
       </c>
       <c r="C55">
-        <v>714.92200000000003</v>
+        <v>1130.06</v>
       </c>
       <c r="D55">
-        <v>499.38200000000001</v>
+        <v>547.58799999999997</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="G55">
-        <f t="shared" ca="1" si="12"/>
-        <v>53</v>
+        <f t="shared" ref="G47:G101" ca="1" si="12">ROUNDUP(K55/2,0)</f>
+        <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" ca="1" si="13"/>
-        <v>42.318906250000005</v>
+        <f t="shared" ref="H47:H101" ca="1" si="13">L55*100/$H$1</f>
+        <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" ca="1" si="14"/>
-        <v>57.77518518518518</v>
+        <f t="shared" ref="I47:I101" ca="1" si="14">M55*100/$I$1</f>
+        <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" ca="1" si="15"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" ca="1" si="16"/>
-        <v>812.52300000000002</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" ca="1" si="17"/>
-        <v>623.97199999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
       <c r="B56">
-        <v>750</v>
+        <v>1005</v>
       </c>
       <c r="C56">
-        <v>653.70299999999997</v>
+        <v>1128.53</v>
       </c>
       <c r="D56">
-        <v>496.31299999999999</v>
+        <v>547.34100000000001</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="13"/>
-        <v>41.689895833333338</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="14"/>
-        <v>57.673703703703701</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" ca="1" si="15"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" ca="1" si="16"/>
-        <v>800.44600000000003</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" ca="1" si="17"/>
-        <v>622.87599999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
       <c r="B57">
-        <v>751</v>
+        <v>1006</v>
       </c>
       <c r="C57">
-        <v>613.22199999999998</v>
+        <v>1126.96</v>
       </c>
       <c r="D57">
-        <v>492.66800000000001</v>
+        <v>547.08600000000001</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -6395,27 +6421,27 @@
         <v>57.591203703703705</v>
       </c>
       <c r="K57">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>110</v>
       </c>
       <c r="L57">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>782.92100000000005</v>
       </c>
       <c r="M57">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>621.98500000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="2:13">
       <c r="B58">
-        <v>752</v>
+        <v>1007</v>
       </c>
       <c r="C58">
-        <v>522.40099999999995</v>
+        <v>1125.3599999999999</v>
       </c>
       <c r="D58">
-        <v>488.25700000000001</v>
+        <v>546.82299999999998</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -6433,27 +6459,27 @@
         <v>57.711851851851854</v>
       </c>
       <c r="K58">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>112</v>
       </c>
       <c r="L58">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>772.01700000000005</v>
       </c>
       <c r="M58">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>623.28800000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="2:13">
       <c r="B59">
-        <v>753</v>
+        <v>1008</v>
       </c>
       <c r="C59">
-        <v>457.65899999999999</v>
+        <v>1123.72</v>
       </c>
       <c r="D59">
-        <v>482.8</v>
+        <v>546.55100000000004</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -6471,27 +6497,27 @@
         <v>57.834074074074067</v>
       </c>
       <c r="K59">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>114</v>
       </c>
       <c r="L59">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>762.85500000000002</v>
       </c>
       <c r="M59">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>624.60799999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="2:13">
       <c r="B60">
-        <v>754</v>
+        <v>1009</v>
       </c>
       <c r="C60">
-        <v>298.50799999999998</v>
+        <v>1122.05</v>
       </c>
       <c r="D60">
-        <v>475.85700000000003</v>
+        <v>546.27200000000005</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -6509,27 +6535,27 @@
         <v>58.108425925925928</v>
       </c>
       <c r="K60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>116</v>
       </c>
       <c r="L60">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>766.46100000000001</v>
       </c>
       <c r="M60">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>627.57100000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="2:13">
       <c r="B61">
-        <v>755</v>
+        <v>1010</v>
       </c>
       <c r="C61">
-        <v>206.863</v>
+        <v>1125.56</v>
       </c>
       <c r="D61">
-        <v>466.70800000000003</v>
+        <v>546.55100000000004</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -6547,19 +6573,31 @@
         <v>58.121388888888887</v>
       </c>
       <c r="K61">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>118</v>
       </c>
       <c r="L61">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>778.298</v>
       </c>
       <c r="M61">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>627.71100000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="2:13">
+      <c r="B62">
+        <v>1011</v>
+      </c>
+      <c r="C62">
+        <v>1129.3699999999999</v>
+      </c>
+      <c r="D62">
+        <v>546.86599999999999</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
       <c r="G62">
         <f t="shared" ca="1" si="12"/>
         <v>60</v>
@@ -6573,19 +6611,31 @@
         <v>58.030648148148146</v>
       </c>
       <c r="K62">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>120</v>
       </c>
       <c r="L62">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>783.50099999999998</v>
       </c>
       <c r="M62">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>626.73099999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="2:13">
+      <c r="B63">
+        <v>1012</v>
+      </c>
+      <c r="C63">
+        <v>1133.1600000000001</v>
+      </c>
+      <c r="D63">
+        <v>547.18299999999999</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
       <c r="G63">
         <f t="shared" ca="1" si="12"/>
         <v>61</v>
@@ -6599,21 +6649,30 @@
         <v>57.925185185185185</v>
       </c>
       <c r="K63">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>122</v>
       </c>
       <c r="L63">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>787.53</v>
       </c>
       <c r="M63">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>625.59199999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
-      <c r="A64" t="s">
-        <v>17</v>
+    <row r="64" spans="2:13">
+      <c r="B64">
+        <v>1013</v>
+      </c>
+      <c r="C64">
+        <v>1136.94</v>
+      </c>
+      <c r="D64">
+        <v>547.50300000000004</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="12"/>
@@ -6628,27 +6687,27 @@
         <v>58.021111111111111</v>
       </c>
       <c r="K64">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>124</v>
       </c>
       <c r="L64">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>784.95100000000002</v>
       </c>
       <c r="M64">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>626.62800000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="2:13">
       <c r="B65">
-        <v>293</v>
+        <v>1014</v>
       </c>
       <c r="C65">
-        <v>1238.95</v>
+        <v>1140.7</v>
       </c>
       <c r="D65">
-        <v>450.512</v>
+        <v>547.82500000000005</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -6666,27 +6725,27 @@
         <v>57.959166666666661</v>
       </c>
       <c r="K65">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>126</v>
       </c>
       <c r="L65">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>770.56600000000003</v>
       </c>
       <c r="M65">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>625.95899999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="2:13">
       <c r="B66">
-        <v>294</v>
+        <v>1015</v>
       </c>
       <c r="C66">
-        <v>1269.56</v>
+        <v>1144.44</v>
       </c>
       <c r="D66">
-        <v>443.90600000000001</v>
+        <v>548.149</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -6704,27 +6763,27 @@
         <v>58.018888888888888</v>
       </c>
       <c r="K66">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>128</v>
       </c>
       <c r="L66">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>748.55</v>
       </c>
       <c r="M66">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>626.60400000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="2:13">
       <c r="B67">
-        <v>295</v>
+        <v>1016</v>
       </c>
       <c r="C67">
-        <v>1306.95</v>
+        <v>1149.8499999999999</v>
       </c>
       <c r="D67">
-        <v>435.81</v>
+        <v>548.15700000000004</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6742,27 +6801,27 @@
         <v>57.969537037037043</v>
       </c>
       <c r="K67">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>130</v>
       </c>
       <c r="L67">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>716.74900000000002</v>
       </c>
       <c r="M67">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>626.07100000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="2:13">
       <c r="B68">
-        <v>296</v>
+        <v>1017</v>
       </c>
       <c r="C68">
-        <v>1353.75</v>
+        <v>1155.3699999999999</v>
       </c>
       <c r="D68">
-        <v>425.64600000000002</v>
+        <v>548.15</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6780,27 +6839,27 @@
         <v>57.889907407407406</v>
       </c>
       <c r="K68">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>132</v>
       </c>
       <c r="L68">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>689.09100000000001</v>
       </c>
       <c r="M68">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>625.21100000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="2:13">
       <c r="B69">
-        <v>297</v>
+        <v>1018</v>
       </c>
       <c r="C69">
-        <v>1414.18</v>
+        <v>1159.71</v>
       </c>
       <c r="D69">
-        <v>412.48700000000002</v>
+        <v>548.29100000000005</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -6818,27 +6877,27 @@
         <v>57.563703703703702</v>
       </c>
       <c r="K69">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>134</v>
       </c>
       <c r="L69">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>662.84799999999996</v>
       </c>
       <c r="M69">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>621.68799999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="2:13">
       <c r="B70">
-        <v>298</v>
+        <v>1019</v>
       </c>
       <c r="C70">
-        <v>1495.39</v>
+        <v>1163.96</v>
       </c>
       <c r="D70">
-        <v>394.75900000000001</v>
+        <v>548.43100000000004</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -6856,27 +6915,27 @@
         <v>57.287222222222219</v>
       </c>
       <c r="K70">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>136</v>
       </c>
       <c r="L70">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>632.077</v>
       </c>
       <c r="M70">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>618.702</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="2:13">
       <c r="B71">
-        <v>299</v>
+        <v>1020</v>
       </c>
       <c r="C71">
-        <v>1610.52</v>
+        <v>1168.17</v>
       </c>
       <c r="D71">
-        <v>369.57400000000001</v>
+        <v>548.56299999999999</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -6894,27 +6953,27 @@
         <v>57.12546296296297</v>
       </c>
       <c r="K71">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>138</v>
       </c>
       <c r="L71">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>596.005</v>
       </c>
       <c r="M71">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>616.95500000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="2:13">
       <c r="B72">
-        <v>300</v>
+        <v>1021</v>
       </c>
       <c r="C72">
-        <v>1786.94</v>
+        <v>1172.3499999999999</v>
       </c>
       <c r="D72">
-        <v>330.916</v>
+        <v>548.68600000000004</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -6932,19 +6991,31 @@
         <v>57.055648148148151</v>
       </c>
       <c r="K72">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>140</v>
       </c>
       <c r="L72">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>560.96299999999997</v>
       </c>
       <c r="M72">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>616.20100000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="2:13">
+      <c r="B73">
+        <v>1022</v>
+      </c>
+      <c r="C73">
+        <v>1170.44</v>
+      </c>
+      <c r="D73">
+        <v>548.61099999999999</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
       <c r="G73">
         <f t="shared" ca="1" si="12"/>
         <v>71</v>
@@ -6958,19 +7029,31 @@
         <v>56.965370370370366</v>
       </c>
       <c r="K73">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>142</v>
       </c>
       <c r="L73">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>521.077</v>
       </c>
       <c r="M73">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>615.226</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="2:13">
+      <c r="B74">
+        <v>1023</v>
+      </c>
+      <c r="C74">
+        <v>1168.1400000000001</v>
+      </c>
+      <c r="D74">
+        <v>548.53099999999995</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
       <c r="G74">
         <f t="shared" ca="1" si="12"/>
         <v>72</v>
@@ -6984,21 +7067,30 @@
         <v>56.685555555555553</v>
       </c>
       <c r="K74">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>144</v>
       </c>
       <c r="L74">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>476.928</v>
       </c>
       <c r="M74">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>612.20399999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
-      <c r="A75" t="s">
-        <v>17</v>
+    <row r="75" spans="2:13">
+      <c r="B75">
+        <v>1024</v>
+      </c>
+      <c r="C75">
+        <v>1165.81</v>
+      </c>
+      <c r="D75">
+        <v>548.45899999999995</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="12"/>
@@ -7013,27 +7105,27 @@
         <v>56.337129629629636</v>
       </c>
       <c r="K75">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>146</v>
       </c>
       <c r="L75">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>424.63600000000002</v>
       </c>
       <c r="M75">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>608.44100000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="2:13">
       <c r="B76">
-        <v>626</v>
+        <v>1025</v>
       </c>
       <c r="C76">
-        <v>1788.2</v>
+        <v>1163.45</v>
       </c>
       <c r="D76">
-        <v>510.66899999999998</v>
+        <v>548.39499999999998</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -7051,27 +7143,27 @@
         <v>55.661944444444444</v>
       </c>
       <c r="K76">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>148</v>
       </c>
       <c r="L76">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>374.43400000000003</v>
       </c>
       <c r="M76">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>601.149</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="2:13">
       <c r="B77">
-        <v>627</v>
+        <v>1026</v>
       </c>
       <c r="C77">
-        <v>1908.2</v>
+        <v>1161.06</v>
       </c>
       <c r="D77">
-        <v>510.66899999999998</v>
+        <v>548.33900000000006</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -7089,19 +7181,31 @@
         <v>55.067037037037039</v>
       </c>
       <c r="K77">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>150</v>
       </c>
       <c r="L77">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>307.834</v>
       </c>
       <c r="M77">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>594.72400000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="2:13">
+      <c r="B78">
+        <v>1027</v>
+      </c>
+      <c r="C78">
+        <v>1158.6300000000001</v>
+      </c>
+      <c r="D78">
+        <v>548.29300000000001</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
       <c r="G78">
         <f t="shared" ca="1" si="12"/>
         <v>76</v>
@@ -7115,19 +7219,31 @@
         <v>54.642037037037035</v>
       </c>
       <c r="K78">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>152</v>
       </c>
       <c r="L78">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>236.07599999999999</v>
       </c>
       <c r="M78">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>590.13400000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="2:13">
+      <c r="B79">
+        <v>1028</v>
+      </c>
+      <c r="C79">
+        <v>1160.3399999999999</v>
+      </c>
+      <c r="D79">
+        <v>547.81700000000001</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
       <c r="G79">
         <f t="shared" ca="1" si="12"/>
         <v>77</v>
@@ -7141,21 +7257,30 @@
         <v>54.556666666666665</v>
       </c>
       <c r="K79">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>154</v>
       </c>
       <c r="L79">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>129.81700000000001</v>
       </c>
       <c r="M79">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>589.21199999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" t="s">
-        <v>17</v>
+    <row r="80" spans="2:13">
+      <c r="B80">
+        <v>1029</v>
+      </c>
+      <c r="C80">
+        <v>1162.3</v>
+      </c>
+      <c r="D80">
+        <v>547.29100000000005</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="12"/>
@@ -7170,27 +7295,27 @@
         <v>54.364444444444445</v>
       </c>
       <c r="K80">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>156</v>
       </c>
       <c r="L80">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>-19.797599999999999</v>
       </c>
       <c r="M80">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>587.13599999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="2:13">
       <c r="B81">
-        <v>353</v>
+        <v>1030</v>
       </c>
       <c r="C81">
-        <v>130.96</v>
+        <v>1164.27</v>
       </c>
       <c r="D81">
-        <v>479.99700000000001</v>
+        <v>546.73599999999999</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -7208,27 +7333,27 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82">
-        <v>354</v>
+        <v>1031</v>
       </c>
       <c r="C82">
-        <v>61.113500000000002</v>
+        <v>1166.24</v>
       </c>
       <c r="D82">
-        <v>492.33100000000002</v>
+        <v>546.15200000000004</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -7246,19 +7371,31 @@
         <v>47.680462962962956</v>
       </c>
       <c r="K82">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>368</v>
       </c>
       <c r="L82">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>954.13199999999995</v>
       </c>
       <c r="M82">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>514.94899999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="2:13">
+      <c r="B83">
+        <v>1032</v>
+      </c>
+      <c r="C83">
+        <v>1168.22</v>
+      </c>
+      <c r="D83">
+        <v>545.53599999999994</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
       <c r="G83">
         <f t="shared" ca="1" si="12"/>
         <v>185</v>
@@ -7272,19 +7409,31 @@
         <v>47.550555555555562</v>
       </c>
       <c r="K83">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>370</v>
       </c>
       <c r="L83">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>943.22699999999998</v>
       </c>
       <c r="M83">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>513.54600000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="2:13">
+      <c r="B84">
+        <v>1033</v>
+      </c>
+      <c r="C84">
+        <v>1170.21</v>
+      </c>
+      <c r="D84">
+        <v>544.88499999999999</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
       <c r="G84">
         <f t="shared" ca="1" si="12"/>
         <v>186</v>
@@ -7298,21 +7447,30 @@
         <v>47.404259259259256</v>
       </c>
       <c r="K84">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>372</v>
       </c>
       <c r="L84">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>931.44399999999996</v>
       </c>
       <c r="M84">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>511.96600000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
-      <c r="A85" t="s">
-        <v>17</v>
+    <row r="85" spans="2:13">
+      <c r="B85">
+        <v>1034</v>
+      </c>
+      <c r="C85">
+        <v>1175.67</v>
+      </c>
+      <c r="D85">
+        <v>544.70000000000005</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="12"/>
@@ -7327,21 +7485,30 @@
         <v>47.238796296296293</v>
       </c>
       <c r="K85">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>374</v>
       </c>
       <c r="L85">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>918.63199999999995</v>
       </c>
       <c r="M85">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>510.17899999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
-      <c r="A86" t="s">
-        <v>17</v>
+    <row r="86" spans="2:13">
+      <c r="B86">
+        <v>1035</v>
+      </c>
+      <c r="C86">
+        <v>1181.4000000000001</v>
+      </c>
+      <c r="D86">
+        <v>544.52499999999998</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="12"/>
@@ -7356,27 +7523,27 @@
         <v>47.050555555555555</v>
       </c>
       <c r="K86">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="9"/>
         <v>376</v>
       </c>
       <c r="L86">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="10"/>
         <v>904.59699999999998</v>
       </c>
       <c r="M86">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="11"/>
         <v>508.14600000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="2:13">
       <c r="B87">
-        <v>78</v>
+        <v>1036</v>
       </c>
       <c r="C87">
-        <v>893.38499999999999</v>
+        <v>1187.22</v>
       </c>
       <c r="D87">
-        <v>627.07600000000002</v>
+        <v>544.327</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -7394,15 +7561,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="2:13">
       <c r="B88">
-        <v>79</v>
+        <v>1037</v>
       </c>
       <c r="C88">
-        <v>890.19799999999998</v>
+        <v>1193.1199999999999</v>
       </c>
       <c r="D88">
-        <v>626.33699999999999</v>
+        <v>544.10500000000002</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -7420,15 +7587,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="2:13">
       <c r="B89">
-        <v>80</v>
+        <v>1038</v>
       </c>
       <c r="C89">
-        <v>888.721</v>
+        <v>1199.1199999999999</v>
       </c>
       <c r="D89">
-        <v>625.95100000000002</v>
+        <v>543.85599999999999</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -7446,15 +7613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="2:13">
       <c r="B90">
-        <v>81</v>
+        <v>1039</v>
       </c>
       <c r="C90">
-        <v>888.92600000000004</v>
+        <v>1205.22</v>
       </c>
       <c r="D90">
-        <v>626.28499999999997</v>
+        <v>543.577</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -7472,15 +7639,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="2:13">
       <c r="B91">
-        <v>82</v>
+        <v>1040</v>
       </c>
       <c r="C91">
-        <v>888.43</v>
+        <v>1212.5</v>
       </c>
       <c r="D91">
-        <v>626.57500000000005</v>
+        <v>542.72500000000002</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7498,15 +7665,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="2:13">
       <c r="B92">
-        <v>83</v>
+        <v>1041</v>
       </c>
       <c r="C92">
-        <v>886.49300000000005</v>
+        <v>1220.03</v>
       </c>
       <c r="D92">
-        <v>627.38699999999994</v>
+        <v>541.77499999999998</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -7524,15 +7691,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="2:13">
       <c r="B93">
-        <v>84</v>
+        <v>1042</v>
       </c>
       <c r="C93">
-        <v>885.07799999999997</v>
+        <v>1228.27</v>
       </c>
       <c r="D93">
-        <v>627.34500000000003</v>
+        <v>540.904</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7550,15 +7717,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="2:13">
       <c r="B94">
-        <v>85</v>
+        <v>1043</v>
       </c>
       <c r="C94">
-        <v>882.81100000000004</v>
+        <v>1238.1199999999999</v>
       </c>
       <c r="D94">
-        <v>627.37900000000002</v>
+        <v>540.36500000000001</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7576,15 +7743,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="2:13">
       <c r="B95">
-        <v>86</v>
+        <v>1044</v>
       </c>
       <c r="C95">
-        <v>882.23</v>
+        <v>1248.3399999999999</v>
       </c>
       <c r="D95">
-        <v>626.92899999999997</v>
+        <v>539.76499999999999</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -7602,15 +7769,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="2:13">
       <c r="B96">
-        <v>87</v>
+        <v>1045</v>
       </c>
       <c r="C96">
-        <v>885.83199999999999</v>
+        <v>1258.95</v>
       </c>
       <c r="D96">
-        <v>626.81600000000003</v>
+        <v>539.096</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -7630,13 +7797,13 @@
     </row>
     <row r="97" spans="2:9">
       <c r="B97">
-        <v>88</v>
+        <v>1046</v>
       </c>
       <c r="C97">
-        <v>881.06200000000001</v>
+        <v>1271.1199999999999</v>
       </c>
       <c r="D97">
-        <v>628.16300000000001</v>
+        <v>538.16999999999996</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -7656,13 +7823,13 @@
     </row>
     <row r="98" spans="2:9">
       <c r="B98">
-        <v>89</v>
+        <v>1047</v>
       </c>
       <c r="C98">
-        <v>877.08500000000004</v>
+        <v>1283.95</v>
       </c>
       <c r="D98">
-        <v>626.22699999999998</v>
+        <v>537.16200000000003</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -7682,13 +7849,13 @@
     </row>
     <row r="99" spans="2:9">
       <c r="B99">
-        <v>90</v>
+        <v>1048</v>
       </c>
       <c r="C99">
-        <v>883.67200000000003</v>
+        <v>1297.46</v>
       </c>
       <c r="D99">
-        <v>626.07399999999996</v>
+        <v>536.07500000000005</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -7708,13 +7875,13 @@
     </row>
     <row r="100" spans="2:9">
       <c r="B100">
-        <v>91</v>
+        <v>1049</v>
       </c>
       <c r="C100">
-        <v>881.49</v>
+        <v>1311.74</v>
       </c>
       <c r="D100">
-        <v>626.95399999999995</v>
+        <v>534.89800000000002</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -7734,13 +7901,13 @@
     </row>
     <row r="101" spans="2:9">
       <c r="B101">
-        <v>92</v>
+        <v>1050</v>
       </c>
       <c r="C101">
-        <v>878.98800000000006</v>
+        <v>1326.9</v>
       </c>
       <c r="D101">
-        <v>627.22500000000002</v>
+        <v>533.61699999999996</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -7760,409 +7927,376 @@
     </row>
     <row r="102" spans="2:9">
       <c r="B102">
-        <v>93</v>
+        <v>1051</v>
       </c>
       <c r="C102">
-        <v>876.46500000000003</v>
+        <v>1343.09</v>
       </c>
       <c r="D102">
-        <v>625.53200000000004</v>
+        <v>532.21600000000001</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="G102">
-        <f t="shared" ref="G102:G116" si="18">ROUNDUP(K102/2,0)</f>
+        <f t="shared" ref="G102:G116" si="15">ROUNDUP(K102/2,0)</f>
         <v>0</v>
       </c>
       <c r="H102">
-        <f t="shared" ref="H102:H116" si="19">L102*100/$H$1</f>
+        <f t="shared" ref="H102:H116" si="16">L102*100/$H$1</f>
         <v>0</v>
       </c>
       <c r="I102">
-        <f t="shared" ref="I102:I116" si="20">M102*100/$I$1</f>
+        <f t="shared" ref="I102:I116" si="17">M102*100/$I$1</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:9">
       <c r="B103">
-        <v>94</v>
+        <v>1052</v>
       </c>
       <c r="C103">
-        <v>872.98299999999995</v>
+        <v>1364.69</v>
       </c>
       <c r="D103">
-        <v>625.27300000000002</v>
+        <v>530.91200000000003</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="G103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:9">
       <c r="B104">
-        <v>95</v>
+        <v>1053</v>
       </c>
       <c r="C104">
-        <v>873.94500000000005</v>
+        <v>1388.18</v>
       </c>
       <c r="D104">
-        <v>623.70600000000002</v>
+        <v>529.41999999999996</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="2:9">
       <c r="B105">
-        <v>96</v>
+        <v>1054</v>
       </c>
       <c r="C105">
-        <v>876.51300000000003</v>
+        <v>1413.61</v>
       </c>
       <c r="D105">
-        <v>625.70600000000002</v>
+        <v>527.68899999999996</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
       <c r="G105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:9">
       <c r="B106">
-        <v>97</v>
+        <v>1055</v>
       </c>
       <c r="C106">
-        <v>854.99900000000002</v>
+        <v>1441.34</v>
       </c>
       <c r="D106">
-        <v>625.48699999999997</v>
+        <v>525.67100000000005</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="G106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:9">
       <c r="B107">
-        <v>98</v>
+        <v>1056</v>
       </c>
       <c r="C107">
-        <v>850.18200000000002</v>
+        <v>1471.88</v>
       </c>
       <c r="D107">
-        <v>624.21900000000005</v>
+        <v>523.30399999999997</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="G107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:9">
       <c r="B108">
-        <v>99</v>
+        <v>1057</v>
       </c>
       <c r="C108">
-        <v>848.87099999999998</v>
+        <v>1505.82</v>
       </c>
       <c r="D108">
-        <v>626.91399999999999</v>
+        <v>520.51</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:9">
       <c r="B109">
-        <v>100</v>
+        <v>1058</v>
       </c>
       <c r="C109">
-        <v>837.89499999999998</v>
+        <v>1539.4</v>
       </c>
       <c r="D109">
-        <v>627.94200000000001</v>
+        <v>515.48199999999997</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="G109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:9">
       <c r="B110">
-        <v>101</v>
+        <v>1059</v>
       </c>
       <c r="C110">
-        <v>831.13099999999997</v>
+        <v>1577.57</v>
       </c>
       <c r="D110">
-        <v>626.88</v>
+        <v>509.49900000000002</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="G110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="2:9">
       <c r="B111">
-        <v>102</v>
+        <v>1060</v>
       </c>
       <c r="C111">
-        <v>826.93700000000001</v>
+        <v>1621.9</v>
       </c>
       <c r="D111">
-        <v>625.33000000000004</v>
+        <v>502.42700000000002</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="G111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:9">
       <c r="B112">
-        <v>103</v>
+        <v>1061</v>
       </c>
       <c r="C112">
-        <v>823.42600000000004</v>
+        <v>1674.2</v>
       </c>
       <c r="D112">
-        <v>625.81200000000001</v>
+        <v>493.94499999999999</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="G112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I112">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113">
-        <v>104</v>
+        <v>1062</v>
       </c>
       <c r="C113">
-        <v>820.01599999999996</v>
+        <v>1737.06</v>
       </c>
       <c r="D113">
-        <v>626.36500000000001</v>
+        <v>483.59300000000002</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="G113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I113">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114">
-        <v>105</v>
+        <v>1063</v>
       </c>
       <c r="C114">
-        <v>816.23199999999997</v>
+        <v>1814.37</v>
       </c>
       <c r="D114">
-        <v>625.49400000000003</v>
+        <v>470.68599999999998</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="G114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I114">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115">
-        <v>106</v>
-      </c>
-      <c r="C115">
-        <v>812.52300000000002</v>
-      </c>
-      <c r="D115">
-        <v>623.97199999999998</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="G115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I115">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116">
-        <v>107</v>
-      </c>
-      <c r="C116">
-        <v>807.83699999999999</v>
-      </c>
-      <c r="D116">
-        <v>623.17899999999997</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="G116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I116">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117">
-        <v>108</v>
-      </c>
-      <c r="C117">
-        <v>800.44600000000003</v>
-      </c>
-      <c r="D117">
-        <v>622.87599999999998</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="B118">
         <v>109</v>
       </c>
@@ -8176,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="1:9">
       <c r="B119">
         <v>110</v>
       </c>
@@ -8190,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="1:9">
       <c r="B120">
         <v>111</v>
       </c>
@@ -8204,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="1:9">
       <c r="B121">
         <v>112</v>
       </c>
@@ -8218,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="1:9">
       <c r="B122">
         <v>113</v>
       </c>
@@ -8232,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="1:9">
       <c r="B123">
         <v>114</v>
       </c>
@@ -8246,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="1:9">
       <c r="B124">
         <v>115</v>
       </c>
@@ -8260,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="1:9">
       <c r="B125">
         <v>116</v>
       </c>
@@ -8274,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="1:9">
       <c r="B126">
         <v>117</v>
       </c>
@@ -8288,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="1:9">
       <c r="B127">
         <v>118</v>
       </c>
@@ -8302,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="1:9">
       <c r="B128">
         <v>119</v>
       </c>
